--- a/Filtered_By_Region/CARAGA/CARAGA_QRF.xlsx
+++ b/Filtered_By_Region/CARAGA/CARAGA_QRF.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
